--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705405.786367922</v>
+        <v>-707768.1024323459</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6264945.561609698</v>
+        <v>6632862.567171198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14003981.96551121</v>
+        <v>13984439.40603276</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>75.74596930735902</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>322.1407030451758</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>290.8329960602537</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>145.07143439176</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.43931059510355</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4314282227021</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>200.4126510055117</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>1.225998096216904</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>122.0299153491823</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>70.16412780162844</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>42.62203021035427</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>236.4127087229496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>322.3057335824956</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0316348532064</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>305.9746219792901</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>84.36670419640058</v>
+        <v>42.04518470759614</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.4798176775456</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T11" t="n">
-        <v>208.7765976615386</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0839646948822</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5933229417834</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>95.33225267692308</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>29.13775285929381</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>139.1740810698718</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>193.1102177759988</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.826237724302</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>85.00726533110797</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1815056576469</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944062</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>125.7365569596136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.7321536188797</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759572</v>
+        <v>42.04518470759601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.464536558263</v>
+        <v>109.4645365582632</v>
       </c>
       <c r="T14" t="n">
         <v>203.9711388310544</v>
@@ -1701,10 +1701,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412521</v>
+        <v>89.65963851412523</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396728</v>
+        <v>8.915218264387686</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H16" t="n">
         <v>144.803454668018</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.51626366671999</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.17712508496203</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>43.19533630779267</v>
       </c>
       <c r="T16" t="n">
-        <v>147.5937380244668</v>
+        <v>219.5722280944082</v>
       </c>
       <c r="U16" t="n">
         <v>286.2121353820159</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>35.47372671916961</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>47.65397667516395</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51626366671984</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
         <v>286.2121353820159</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.803454668018</v>
+        <v>124.1187589878506</v>
       </c>
       <c r="I22" t="n">
         <v>96.51626366671984</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.17712508496182</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>217.4956230556948</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>29.59760403433643</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>32.27930172388734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5722280944081</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>67.33742371513297</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8460252842332</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.01141625626346</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145384</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575754</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292724</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633441</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145481</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128494</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3560,7 +3560,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572756</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>1445.937797240526</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1445.937797240526</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1087.672098633776</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>701.8838460355314</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1731.901079302655</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1731.901079302655</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1731.901079302655</v>
+        <v>1445.937797240526</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240418</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240418</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240418</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>149.5382038240418</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>149.5382038240418</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5382038240418</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>149.5382038240418</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240418</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240418</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240418</v>
+        <v>246.1363086691493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.6391033168661</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C5" t="n">
-        <v>806.6391033168661</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>806.6391033168661</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>420.8508507186219</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>413.9053499694184</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626914</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.3782753568</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.3782753568</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1193.238943380988</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.027325963587</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="C7" t="n">
-        <v>184.027325963587</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>726.8906022910636</v>
       </c>
       <c r="X7" t="n">
-        <v>184.027325963587</v>
+        <v>726.8906022910636</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.027325963587</v>
+        <v>506.0980231475335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.055971578408</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="C8" t="n">
-        <v>1075.055971578408</v>
+        <v>1391.943488066779</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.055971578408</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>689.2677189801636</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>278.2818141905561</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.19530355422</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.055971578408</v>
+        <v>2147.505845071313</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>142.6520620212647</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>489.3282683246672</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X10" t="n">
-        <v>489.3282683246672</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>290.5651556036578</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.635876973547</v>
+        <v>2374.846544663939</v>
       </c>
       <c r="C11" t="n">
-        <v>1975.673360033135</v>
+        <v>2005.884027723528</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.407661426385</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E11" t="n">
-        <v>1231.619408828141</v>
+        <v>1261.830076518533</v>
       </c>
       <c r="F11" t="n">
-        <v>906.0580617751148</v>
+        <v>850.8441717289254</v>
       </c>
       <c r="G11" t="n">
-        <v>489.8644912163205</v>
+        <v>435.7594529847903</v>
       </c>
       <c r="H11" t="n">
-        <v>180.7992164897648</v>
+        <v>138.0502069051139</v>
       </c>
       <c r="I11" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J11" t="n">
-        <v>358.6049689583615</v>
+        <v>450.8445436698805</v>
       </c>
       <c r="K11" t="n">
-        <v>873.5555348492707</v>
+        <v>1083.760405792859</v>
       </c>
       <c r="L11" t="n">
-        <v>1564.673874423016</v>
+        <v>1532.897071561938</v>
       </c>
       <c r="M11" t="n">
-        <v>2350.28273691944</v>
+        <v>2064.317589044852</v>
       </c>
       <c r="N11" t="n">
-        <v>3133.971574594022</v>
+        <v>2608.950854462518</v>
       </c>
       <c r="O11" t="n">
-        <v>3828.799083380405</v>
+        <v>3486.889521217949</v>
       </c>
       <c r="P11" t="n">
-        <v>4384.143903819489</v>
+        <v>4198.515478557251</v>
       </c>
       <c r="Q11" t="n">
-        <v>4723.962976304608</v>
+        <v>4655.695176366789</v>
       </c>
       <c r="R11" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104374</v>
       </c>
       <c r="S11" t="n">
-        <v>4643.177968430085</v>
+        <v>4668.445929156634</v>
       </c>
       <c r="T11" t="n">
-        <v>4432.292516246713</v>
+        <v>4462.414475791932</v>
       </c>
       <c r="U11" t="n">
-        <v>4178.672349888246</v>
+        <v>4208.883017578638</v>
       </c>
       <c r="V11" t="n">
-        <v>3847.609462544675</v>
+        <v>3877.820130235067</v>
       </c>
       <c r="W11" t="n">
-        <v>3494.840807274561</v>
+        <v>3525.051474964953</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.375049013481</v>
+        <v>3151.585716703873</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.235717037669</v>
+        <v>2761.446384728061</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4300060688951</v>
+        <v>960.6800021268582</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9769767877681</v>
+        <v>786.2269728457312</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0425671265168</v>
+        <v>637.2925631844801</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8051121210614</v>
+        <v>478.0551081790245</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2705541479463</v>
+        <v>331.5205502059096</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3076016814985</v>
+        <v>195.1508857646356</v>
       </c>
       <c r="H12" t="n">
-        <v>125.0123969573337</v>
+        <v>104.585594336226</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J12" t="n">
-        <v>258.5426206970134</v>
+        <v>188.6497545038421</v>
       </c>
       <c r="K12" t="n">
-        <v>401.8714015675864</v>
+        <v>425.8750609309152</v>
       </c>
       <c r="L12" t="n">
-        <v>640.9171764733917</v>
+        <v>791.1763019983994</v>
       </c>
       <c r="M12" t="n">
-        <v>1153.968775768918</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N12" t="n">
-        <v>1474.584864425051</v>
+        <v>1708.672248108488</v>
       </c>
       <c r="O12" t="n">
-        <v>2135.589848993507</v>
+        <v>2118.102799755745</v>
       </c>
       <c r="P12" t="n">
-        <v>2333.823415707589</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q12" t="n">
-        <v>2624.394623756942</v>
+        <v>2584.194155770509</v>
       </c>
       <c r="R12" t="n">
-        <v>2624.394623756942</v>
+        <v>2584.194155770509</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.814743888385</v>
+        <v>2454.634340755505</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.753917852022</v>
+        <v>2261.964881803066</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.646607019394</v>
+        <v>2033.896603077357</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.494498787651</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.25714205945</v>
+        <v>1544.507138117413</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.405641853917</v>
+        <v>1336.65563791188</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.645343088963</v>
+        <v>1128.895339146926</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.1818064976592</v>
+        <v>476.2492890192677</v>
       </c>
       <c r="C13" t="n">
-        <v>394.1818064976592</v>
+        <v>476.2492890192677</v>
       </c>
       <c r="D13" t="n">
-        <v>394.1818064976592</v>
+        <v>390.383364442391</v>
       </c>
       <c r="E13" t="n">
-        <v>246.2687129152661</v>
+        <v>242.4702708599978</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2687129152661</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="G13" t="n">
-        <v>246.2687129152661</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="H13" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="I13" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8557468869999</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K13" t="n">
-        <v>252.5782609373993</v>
+        <v>343.6821446305111</v>
       </c>
       <c r="L13" t="n">
-        <v>495.858998731303</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M13" t="n">
-        <v>762.7535493530399</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N13" t="n">
-        <v>1028.736560521497</v>
+        <v>1343.33457539346</v>
       </c>
       <c r="O13" t="n">
-        <v>1258.398626418944</v>
+        <v>1641.90179202596</v>
       </c>
       <c r="P13" t="n">
-        <v>1431.393516913218</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q13" t="n">
-        <v>1467.731131905806</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="R13" t="n">
-        <v>1467.731131905806</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="S13" t="n">
-        <v>1467.731131905806</v>
+        <v>1759.233794600963</v>
       </c>
       <c r="T13" t="n">
-        <v>1467.731131905806</v>
+        <v>1537.443665212674</v>
       </c>
       <c r="U13" t="n">
-        <v>1467.731131905806</v>
+        <v>1248.340498160132</v>
       </c>
       <c r="V13" t="n">
-        <v>1213.046643699919</v>
+        <v>993.6560099542456</v>
       </c>
       <c r="W13" t="n">
-        <v>923.6294736629579</v>
+        <v>704.2388399172851</v>
       </c>
       <c r="X13" t="n">
-        <v>796.622850471429</v>
+        <v>476.2492890192677</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8302713278989</v>
+        <v>476.2492890192677</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.830076518533</v>
       </c>
       <c r="F14" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289252</v>
       </c>
       <c r="G14" t="n">
-        <v>435.7594529847893</v>
+        <v>435.75945298479</v>
       </c>
       <c r="H14" t="n">
-        <v>138.0502069051134</v>
+        <v>138.0502069051138</v>
       </c>
       <c r="I14" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J14" t="n">
-        <v>283.438894649527</v>
+        <v>283.4388946495264</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6326723899224</v>
+        <v>615.7287139444678</v>
       </c>
       <c r="L14" t="n">
-        <v>1799.253940563947</v>
+        <v>1248.737035753505</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.67445804686</v>
+        <v>2225.175951394321</v>
       </c>
       <c r="N14" t="n">
-        <v>3202.782671979845</v>
+        <v>3202.78267197985</v>
       </c>
       <c r="O14" t="n">
-        <v>4080.721338735275</v>
+        <v>4080.721338735278</v>
       </c>
       <c r="P14" t="n">
-        <v>4473.766574984809</v>
+        <v>4473.766574984811</v>
       </c>
       <c r="Q14" t="n">
         <v>4720.754432041042</v>
       </c>
       <c r="R14" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104374</v>
       </c>
       <c r="S14" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T14" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W14" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X14" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y14" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960.6800021268581</v>
+        <v>960.6800021268489</v>
       </c>
       <c r="C15" t="n">
-        <v>786.2269728457311</v>
+        <v>786.2269728457219</v>
       </c>
       <c r="D15" t="n">
-        <v>637.2925631844798</v>
+        <v>637.2925631844706</v>
       </c>
       <c r="E15" t="n">
-        <v>478.0551081790243</v>
+        <v>478.0551081790151</v>
       </c>
       <c r="F15" t="n">
-        <v>331.5205502059092</v>
+        <v>331.5205502059001</v>
       </c>
       <c r="G15" t="n">
-        <v>195.1508857646349</v>
+        <v>195.1508857646258</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5855943362256</v>
+        <v>104.5855943362165</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J15" t="n">
-        <v>188.6497545038419</v>
+        <v>188.6497545038416</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8750609309146</v>
+        <v>425.8750609309136</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1763019983985</v>
+        <v>791.1763019983965</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.822488350012</v>
+        <v>1236.822488350009</v>
       </c>
       <c r="N15" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108481</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.102799755742</v>
+        <v>2118.102799755737</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.373847244435</v>
+        <v>2427.373847244429</v>
       </c>
       <c r="Q15" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.1941557705</v>
       </c>
       <c r="R15" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.1941557705</v>
       </c>
       <c r="S15" t="n">
-        <v>2454.634340755505</v>
+        <v>2454.634340755496</v>
       </c>
       <c r="T15" t="n">
-        <v>2261.964881803066</v>
+        <v>2261.964881803057</v>
       </c>
       <c r="U15" t="n">
-        <v>2033.896603077357</v>
+        <v>2033.896603077348</v>
       </c>
       <c r="V15" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845605</v>
       </c>
       <c r="W15" t="n">
-        <v>1544.507138117413</v>
+        <v>1544.507138117404</v>
       </c>
       <c r="X15" t="n">
-        <v>1336.65563791188</v>
+        <v>1336.655637911871</v>
       </c>
       <c r="Y15" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146917</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.7023026089144</v>
+        <v>675.9821374292087</v>
       </c>
       <c r="C16" t="n">
-        <v>686.7661196810075</v>
+        <v>507.0459545013018</v>
       </c>
       <c r="D16" t="n">
-        <v>536.6494802686717</v>
+        <v>507.0459545013018</v>
       </c>
       <c r="E16" t="n">
-        <v>388.7363866862786</v>
+        <v>507.0459545013018</v>
       </c>
       <c r="F16" t="n">
-        <v>241.8464391883683</v>
+        <v>507.0459545013018</v>
       </c>
       <c r="G16" t="n">
-        <v>241.8464391883683</v>
+        <v>339.3376146092976</v>
       </c>
       <c r="H16" t="n">
-        <v>95.58032336208746</v>
+        <v>193.0714987830168</v>
       </c>
       <c r="I16" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J16" t="n">
-        <v>140.3216175627467</v>
+        <v>140.3216175627465</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6821446305107</v>
+        <v>343.6821446305102</v>
       </c>
       <c r="L16" t="n">
-        <v>659.4400393012517</v>
+        <v>659.4400393012505</v>
       </c>
       <c r="M16" t="n">
-        <v>1002.751589802364</v>
+        <v>1002.751589802362</v>
       </c>
       <c r="N16" t="n">
-        <v>1343.334575393458</v>
+        <v>1343.334575393456</v>
       </c>
       <c r="O16" t="n">
-        <v>1641.901792025958</v>
+        <v>1641.901792025956</v>
       </c>
       <c r="P16" t="n">
-        <v>1873.856942706697</v>
+        <v>1873.856942706694</v>
       </c>
       <c r="Q16" t="n">
-        <v>1951.01558570421</v>
+        <v>1951.015585704207</v>
       </c>
       <c r="R16" t="n">
-        <v>1951.01558570421</v>
+        <v>1860.937681577982</v>
       </c>
       <c r="S16" t="n">
-        <v>1951.01558570421</v>
+        <v>1817.306028741828</v>
       </c>
       <c r="T16" t="n">
-        <v>1801.931001841112</v>
+        <v>1595.515899353537</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.827834788571</v>
+        <v>1306.412732300996</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.143346582684</v>
+        <v>1306.412732300996</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.143346582684</v>
+        <v>1306.412732300996</v>
       </c>
       <c r="X16" t="n">
-        <v>1258.143346582684</v>
+        <v>1078.423181402979</v>
       </c>
       <c r="Y16" t="n">
-        <v>1037.350767439154</v>
+        <v>857.6306022594484</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.846544663939</v>
       </c>
       <c r="C17" t="n">
         <v>2005.884027723527</v>
@@ -5501,7 +5501,7 @@
         <v>1261.830076518532</v>
       </c>
       <c r="F17" t="n">
-        <v>850.8441717289247</v>
+        <v>850.8441717289248</v>
       </c>
       <c r="G17" t="n">
         <v>435.7594529847897</v>
@@ -5510,7 +5510,7 @@
         <v>138.0502069051133</v>
       </c>
       <c r="I17" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J17" t="n">
         <v>450.8445436698804</v>
@@ -5528,37 +5528,37 @@
         <v>2629.228770079935</v>
       </c>
       <c r="O17" t="n">
-        <v>3486.889521217948</v>
+        <v>3486.889521217949</v>
       </c>
       <c r="P17" t="n">
-        <v>4198.51547855725</v>
+        <v>4198.515478557251</v>
       </c>
       <c r="Q17" t="n">
-        <v>4655.695176366788</v>
+        <v>4655.695176366789</v>
       </c>
       <c r="R17" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104374</v>
       </c>
       <c r="S17" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156634</v>
       </c>
       <c r="T17" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791932</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578638</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235067</v>
       </c>
       <c r="W17" t="n">
-        <v>3525.051474964952</v>
+        <v>3525.051474964953</v>
       </c>
       <c r="X17" t="n">
-        <v>3151.585716703872</v>
+        <v>3151.585716703873</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.44638472806</v>
+        <v>2761.446384728061</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>104.5855943362255</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J18" t="n">
-        <v>188.6497545038421</v>
+        <v>188.6497545038413</v>
       </c>
       <c r="K18" t="n">
-        <v>425.8750609309151</v>
+        <v>425.8750609309143</v>
       </c>
       <c r="L18" t="n">
-        <v>791.1763019983993</v>
+        <v>791.1763019983985</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.822488350013</v>
+        <v>1236.822488350012</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.672248108487</v>
+        <v>1708.672248108486</v>
       </c>
       <c r="O18" t="n">
-        <v>2118.102799755744</v>
+        <v>2118.102799755743</v>
       </c>
       <c r="P18" t="n">
         <v>2427.373847244437</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.1727446805654</v>
+        <v>447.2385009789851</v>
       </c>
       <c r="C19" t="n">
-        <v>539.2365617526585</v>
+        <v>278.3023180510783</v>
       </c>
       <c r="D19" t="n">
-        <v>389.1199223403228</v>
+        <v>278.3023180510783</v>
       </c>
       <c r="E19" t="n">
-        <v>241.2068287579297</v>
+        <v>242.4702708599978</v>
       </c>
       <c r="F19" t="n">
-        <v>241.2068287579297</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="G19" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="H19" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="I19" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J19" t="n">
-        <v>140.3216175627468</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K19" t="n">
-        <v>343.682144630511</v>
+        <v>343.6821446305123</v>
       </c>
       <c r="L19" t="n">
-        <v>659.4400393012522</v>
+        <v>659.4400393012535</v>
       </c>
       <c r="M19" t="n">
-        <v>1002.751589802365</v>
+        <v>1002.751589802366</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.334575393459</v>
+        <v>1343.33457539346</v>
       </c>
       <c r="O19" t="n">
-        <v>1641.901792025959</v>
+        <v>1641.901792025961</v>
       </c>
       <c r="P19" t="n">
-        <v>1873.856942706699</v>
+        <v>1873.8569427067</v>
       </c>
       <c r="Q19" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.015585704213</v>
       </c>
       <c r="R19" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.015585704213</v>
       </c>
       <c r="S19" t="n">
-        <v>1951.015585704211</v>
+        <v>1951.015585704213</v>
       </c>
       <c r="T19" t="n">
-        <v>1951.015585704211</v>
+        <v>1729.225456315922</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.91241865167</v>
+        <v>1440.12228926338</v>
       </c>
       <c r="V19" t="n">
-        <v>1407.227930445783</v>
+        <v>1185.437801057493</v>
       </c>
       <c r="W19" t="n">
-        <v>1117.810760408822</v>
+        <v>896.0206310205326</v>
       </c>
       <c r="X19" t="n">
-        <v>889.8212095108051</v>
+        <v>668.0310801225153</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.8212095108051</v>
+        <v>447.2385009789851</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.846544663939</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.884027723528</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.618329116777</v>
+        <v>1647.618329116778</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.830076518534</v>
       </c>
       <c r="F20" t="n">
-        <v>850.8441717289248</v>
+        <v>850.8441717289259</v>
       </c>
       <c r="G20" t="n">
         <v>435.7594529847897</v>
       </c>
       <c r="H20" t="n">
-        <v>138.0502069051133</v>
+        <v>138.0502069051134</v>
       </c>
       <c r="I20" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J20" t="n">
         <v>283.4388946495274</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6326723899232</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L20" t="n">
-        <v>1799.253940563948</v>
+        <v>1248.737035753497</v>
       </c>
       <c r="M20" t="n">
-        <v>2775.692856204766</v>
+        <v>2225.175951394315</v>
       </c>
       <c r="N20" t="n">
-        <v>3320.326121622432</v>
+        <v>3202.782671979845</v>
       </c>
       <c r="O20" t="n">
-        <v>4080.721338735274</v>
+        <v>4080.721338735275</v>
       </c>
       <c r="P20" t="n">
-        <v>4473.766574984809</v>
+        <v>4473.76657498481</v>
       </c>
       <c r="Q20" t="n">
         <v>4720.754432041042</v>
       </c>
       <c r="R20" t="n">
-        <v>4779.016168104373</v>
+        <v>4779.016168104374</v>
       </c>
       <c r="S20" t="n">
-        <v>4668.445929156633</v>
+        <v>4668.445929156634</v>
       </c>
       <c r="T20" t="n">
-        <v>4462.414475791931</v>
+        <v>4462.414475791932</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.883017578638</v>
       </c>
       <c r="V20" t="n">
         <v>3877.820130235067</v>
       </c>
       <c r="W20" t="n">
-        <v>3525.051474964952</v>
+        <v>3525.051474964953</v>
       </c>
       <c r="X20" t="n">
         <v>3151.585716703873</v>
@@ -5826,7 +5826,7 @@
         <v>104.5855943362255</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J21" t="n">
         <v>188.6497545038417</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.9887243394546</v>
+        <v>487.3801655370353</v>
       </c>
       <c r="C22" t="n">
-        <v>804.0525414115477</v>
+        <v>318.4439826091284</v>
       </c>
       <c r="D22" t="n">
-        <v>653.935901999212</v>
+        <v>318.4439826091284</v>
       </c>
       <c r="E22" t="n">
-        <v>653.935901999212</v>
+        <v>318.4439826091284</v>
       </c>
       <c r="F22" t="n">
-        <v>507.0459545013016</v>
+        <v>318.4439826091284</v>
       </c>
       <c r="G22" t="n">
-        <v>339.3376146092974</v>
+        <v>318.4439826091284</v>
       </c>
       <c r="H22" t="n">
         <v>193.0714987830166</v>
       </c>
       <c r="I22" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J22" t="n">
-        <v>140.3216175627468</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K22" t="n">
-        <v>343.682144630511</v>
+        <v>343.6821446305111</v>
       </c>
       <c r="L22" t="n">
         <v>659.4400393012522</v>
@@ -5932,28 +5932,28 @@
         <v>1951.015585704211</v>
       </c>
       <c r="R22" t="n">
-        <v>1860.937681577987</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="S22" t="n">
-        <v>1669.155890474738</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="T22" t="n">
-        <v>1447.365761086447</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="U22" t="n">
-        <v>1227.673212545342</v>
+        <v>1661.91241865167</v>
       </c>
       <c r="V22" t="n">
-        <v>972.9887243394546</v>
+        <v>1407.227930445783</v>
       </c>
       <c r="W22" t="n">
-        <v>972.9887243394546</v>
+        <v>1117.810760408822</v>
       </c>
       <c r="X22" t="n">
-        <v>972.9887243394546</v>
+        <v>889.8212095108051</v>
       </c>
       <c r="Y22" t="n">
-        <v>972.9887243394546</v>
+        <v>669.028630367275</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663939</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D23" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E23" t="n">
         <v>1261.830076518532</v>
       </c>
       <c r="F23" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289248</v>
       </c>
       <c r="G23" t="n">
-        <v>435.7594529847894</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H23" t="n">
         <v>138.0502069051133</v>
       </c>
       <c r="I23" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J23" t="n">
         <v>283.4388946495274</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6326723899232</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L23" t="n">
-        <v>1799.253940563948</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.674458046862</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N23" t="n">
-        <v>3308.281178632392</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O23" t="n">
         <v>4080.721338735274</v>
@@ -6014,25 +6014,25 @@
         <v>4779.016168104373</v>
       </c>
       <c r="S23" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T23" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235067</v>
       </c>
       <c r="W23" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X23" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703873</v>
       </c>
       <c r="Y23" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.446384728061</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6063,10 @@
         <v>104.5855943362255</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J24" t="n">
-        <v>188.6497545038421</v>
+        <v>188.6497545038413</v>
       </c>
       <c r="K24" t="n">
         <v>425.8750609309143</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>591.2149659804735</v>
+        <v>414.6331457023301</v>
       </c>
       <c r="C25" t="n">
-        <v>591.2149659804735</v>
+        <v>245.6969627744232</v>
       </c>
       <c r="D25" t="n">
-        <v>441.0983265681377</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="E25" t="n">
-        <v>293.1852329857446</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="F25" t="n">
-        <v>293.1852329857446</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="G25" t="n">
-        <v>125.4768930937404</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="H25" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="I25" t="n">
-        <v>95.58032336208746</v>
+        <v>95.58032336208748</v>
       </c>
       <c r="J25" t="n">
-        <v>140.3216175627468</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K25" t="n">
-        <v>343.682144630511</v>
+        <v>343.6821446305111</v>
       </c>
       <c r="L25" t="n">
         <v>659.4400393012522</v>
@@ -6169,28 +6169,28 @@
         <v>1951.015585704211</v>
       </c>
       <c r="R25" t="n">
-        <v>1951.015585704211</v>
+        <v>1918.410230427558</v>
       </c>
       <c r="S25" t="n">
-        <v>1759.233794600962</v>
+        <v>1918.410230427558</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.443665212671</v>
+        <v>1696.620101039267</v>
       </c>
       <c r="U25" t="n">
-        <v>1248.34049816013</v>
+        <v>1407.516933986725</v>
       </c>
       <c r="V25" t="n">
-        <v>993.6560099542434</v>
+        <v>1152.832445780838</v>
       </c>
       <c r="W25" t="n">
-        <v>993.6560099542434</v>
+        <v>863.4152757438776</v>
       </c>
       <c r="X25" t="n">
-        <v>993.6560099542434</v>
+        <v>635.4257248458603</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.8634308107132</v>
+        <v>414.6331457023301</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6251,19 +6251,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
@@ -6303,19 +6303,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.4007383484569</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C28" t="n">
-        <v>854.4007383484569</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D28" t="n">
-        <v>704.2840989361212</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1256.841782322227</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>1036.049203178697</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1931.079409280195</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1931.079409280195</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1709.312793849721</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1420.209926975365</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1165.525438769478</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>876.1082687325173</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>648.1187178345</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.3261386909699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320248</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
         <v>1715.000032008795</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,13 +6816,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6847,22 +6847,22 @@
         <v>364.4578361932525</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6880,10 +6880,10 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829559</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6950,37 +6950,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902952</v>
@@ -7084,13 +7084,13 @@
         <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>187.1890521477366</v>
@@ -7114,7 +7114,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7181,37 +7181,37 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932519</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160441</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7345,37 +7345,37 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7391,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7479,31 +7479,31 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
@@ -7594,7 +7594,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="44">
@@ -7652,22 +7652,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7719,28 +7719,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
         <v>564.3616113774093</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>303.6626695232679</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>216.9086736050249</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.01393642657939</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>185.7289454949091</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>330.7827762781009</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>10.1257471485941</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.557953848736361e-12</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602910757</v>
+        <v>0.5463950602913314</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>360.3174382148491</v>
+        <v>360.31743821485</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,19 +9401,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>185.7289454948964</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>262.0694240480103</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>274.2360331288583</v>
+        <v>148.8679122071903</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>344.7025836476848</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400264</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>331.1300764343524</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>27.10026567223719</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8782170296804449</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>84.57031215921586</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>63.60820768710438</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5236753160485</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3246406336855</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.3180659793427</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4454903160596</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6761994288924</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2389945905412</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.97309842942356</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671988</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496189</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>146.6686368844239</v>
       </c>
       <c r="T16" t="n">
-        <v>71.97849006994133</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>110.9602359273996</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>118.3772798179202</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H19" t="n">
         <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>20.68469568016735</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>68.71651232632107</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H25" t="n">
-        <v>115.2058506336816</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I25" t="n">
         <v>96.51626366671984</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.17712508496182</v>
+        <v>56.89782336107447</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>71.86363010480397</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.92073641378387</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.592326932761353e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1206693.008194688</v>
+        <v>1177966.783285192</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1178420.432881525</v>
+        <v>1188750.807512947</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1188750.807512946</v>
+        <v>1188750.807512947</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216719.289249152</v>
+        <v>211363.5524016188</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
@@ -26320,7 +26320,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>213000.4714344098</v>
+        <v>218356.2082819431</v>
       </c>
       <c r="F2" t="n">
         <v>218356.2082819431</v>
@@ -26341,16 +26341,16 @@
         <v>218394.9827878408</v>
       </c>
       <c r="L2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="M2" t="n">
         <v>225786.4867126782</v>
-      </c>
-      <c r="M2" t="n">
-        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
         <v>225786.486712678</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>505637.9398330514</v>
+        <v>725022.08835296</v>
       </c>
       <c r="F3" t="n">
-        <v>215845.72534185</v>
+        <v>-6.697763368477656e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>7.071203071973287e-10</v>
+        <v>2.121360921591986e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178595.2595245357</v>
+        <v>178595.2595245356</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487386</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="M3" t="n">
         <v>129702.4007695444</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164529.5676576517</v>
+        <v>153413.6467195452</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36740.56312572512</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="F4" t="n">
-        <v>18359.70425226889</v>
+        <v>18359.70425226903</v>
       </c>
       <c r="G4" t="n">
-        <v>18359.70425226888</v>
+        <v>18359.70425226885</v>
       </c>
       <c r="H4" t="n">
         <v>18359.70425226885</v>
@@ -26439,19 +26439,19 @@
         <v>18359.70425226884</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740893</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740892</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90379.41771516021</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="F5" t="n">
-        <v>96332.3136313243</v>
+        <v>96332.31363132427</v>
       </c>
       <c r="G5" t="n">
-        <v>96332.31363132432</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="H5" t="n">
-        <v>96332.31363132432</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="I5" t="n">
-        <v>96332.31363132432</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-620637.2356864536</v>
+        <v>-615008.1691805263</v>
       </c>
       <c r="C6" t="n">
-        <v>-40421.27820785942</v>
+        <v>-40421.27820785943</v>
       </c>
       <c r="D6" t="n">
-        <v>-40421.27820785942</v>
+        <v>-40421.27820785943</v>
       </c>
       <c r="E6" t="n">
-        <v>-419757.449239527</v>
+        <v>-621425.445940344</v>
       </c>
       <c r="F6" t="n">
-        <v>-112181.5349435002</v>
+        <v>103596.6424126182</v>
       </c>
       <c r="G6" t="n">
-        <v>103664.1903983492</v>
+        <v>103596.6424126139</v>
       </c>
       <c r="H6" t="n">
-        <v>103664.19039835</v>
+        <v>103596.642412616</v>
       </c>
       <c r="I6" t="n">
-        <v>103664.19039835</v>
+        <v>103596.642412616</v>
       </c>
       <c r="J6" t="n">
-        <v>-74732.28730959853</v>
+        <v>-74799.48279982418</v>
       </c>
       <c r="K6" t="n">
-        <v>103862.9722149372</v>
+        <v>103795.7767247114</v>
       </c>
       <c r="L6" t="n">
-        <v>54268.05310629321</v>
+        <v>54268.05310629294</v>
       </c>
       <c r="M6" t="n">
-        <v>-37854.23836837741</v>
+        <v>-37854.23836837732</v>
       </c>
       <c r="N6" t="n">
         <v>91848.16240116698</v>
       </c>
       <c r="O6" t="n">
-        <v>91848.16240116715</v>
+        <v>91848.16240116692</v>
       </c>
       <c r="P6" t="n">
-        <v>91848.1624011668</v>
+        <v>91848.16240116692</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>46.97513661859252</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>813.6867871547583</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
-        <v>1086.755407162286</v>
+        <v>1086.755407162284</v>
       </c>
       <c r="G3" t="n">
         <v>1086.755407162287</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.754042026093</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>435.9431229376717</v>
+        <v>709.0117429452002</v>
       </c>
       <c r="F3" t="n">
-        <v>273.0686200075274</v>
+        <v>-1.08644308456513e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.4667692715375</v>
+        <v>520.4667692715378</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.0461613333927</v>
+        <v>674.0461613333923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715375</v>
+        <v>520.4667692715383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715375</v>
+        <v>520.4667692715378</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>368.8528836487886</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>95.40494259579987</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>3.544038626452334</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>85.52631119723468</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>209.3527417980929</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>185.8252876505418</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.83197231642205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>285.2970002403741</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>232.6531262715007</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>343.6200422191665</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>102.799017812577</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>50.11028961364144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.956005727758263e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.271102661928674</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H11" t="n">
-        <v>33.50018013647704</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I11" t="n">
-        <v>126.1091853740053</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J11" t="n">
-        <v>277.6307495528691</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K11" t="n">
-        <v>416.0965252323099</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L11" t="n">
-        <v>516.2045333223097</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M11" t="n">
-        <v>574.3770052863838</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N11" t="n">
-        <v>583.6710257245886</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O11" t="n">
-        <v>551.1439986300353</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P11" t="n">
-        <v>470.3886516636711</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q11" t="n">
-        <v>353.2422875833504</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R11" t="n">
-        <v>205.4784025873773</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S11" t="n">
-        <v>74.54025190869974</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T11" t="n">
-        <v>14.31925190259278</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2616882129542939</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.750194221427216</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H12" t="n">
-        <v>16.90319155957338</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I12" t="n">
-        <v>60.25887999212127</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J12" t="n">
-        <v>165.3549724726477</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K12" t="n">
-        <v>282.6179853082712</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L12" t="n">
-        <v>380.0147584726068</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M12" t="n">
-        <v>443.4592989993432</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N12" t="n">
-        <v>455.1963470895285</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O12" t="n">
-        <v>416.4157277621148</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P12" t="n">
-        <v>334.2103333881498</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.4107571070952</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R12" t="n">
-        <v>108.6655675373846</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>32.50909003396603</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>7.054510918822856</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1151443566728432</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.46730404241022</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>13.04566684979269</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I13" t="n">
-        <v>44.12583429357281</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>103.7383957984025</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>170.4740514727509</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L13" t="n">
-        <v>218.1480937234249</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M13" t="n">
-        <v>230.0065782116311</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N13" t="n">
-        <v>224.5375358717386</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O13" t="n">
-        <v>207.3967568308555</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>177.4637543656869</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.8667048603685</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>65.97532539782678</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S13" t="n">
-        <v>25.57110772091264</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T13" t="n">
-        <v>6.269389999389119</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08003476594964845</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441346</v>
+        <v>4.368865958441339</v>
       </c>
       <c r="H14" t="n">
-        <v>44.74264849688745</v>
+        <v>44.74264849688738</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628102</v>
+        <v>168.4307048628099</v>
       </c>
       <c r="J14" t="n">
-        <v>370.8020371402616</v>
+        <v>370.8020371402609</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610839</v>
+        <v>555.736133161083</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367334</v>
+        <v>689.4398147367323</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251647</v>
+        <v>767.1346347251633</v>
       </c>
       <c r="N14" t="n">
-        <v>779.5476751295862</v>
+        <v>779.5476751295849</v>
       </c>
       <c r="O14" t="n">
-        <v>736.104764255335</v>
+        <v>736.1047642553337</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063142</v>
+        <v>628.2483859063132</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696333</v>
+        <v>471.7883737696325</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619415</v>
+        <v>274.435776261941</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798229</v>
+        <v>99.55553302798212</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307701</v>
+        <v>19.12471073307697</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3495092766753077</v>
+        <v>0.3495092766753071</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.337549366349068</v>
+        <v>2.337549366349064</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237126</v>
+        <v>22.57580572237122</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701835</v>
+        <v>80.48141458701821</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724793</v>
+        <v>220.8471530724789</v>
       </c>
       <c r="K15" t="n">
-        <v>377.4629606178668</v>
+        <v>377.4629606178661</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732921</v>
+        <v>507.5455323732913</v>
       </c>
       <c r="M15" t="n">
-        <v>592.2816969034457</v>
+        <v>592.2816969034446</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312867</v>
+        <v>607.9576310312857</v>
       </c>
       <c r="O15" t="n">
-        <v>556.162458229552</v>
+        <v>556.1624582295511</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776566</v>
+        <v>446.3694048776559</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325582</v>
+        <v>298.3861261325577</v>
       </c>
       <c r="R15" t="n">
-        <v>145.1331089036729</v>
+        <v>145.1331089036726</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898375</v>
+        <v>43.41895423898367</v>
       </c>
       <c r="T15" t="n">
-        <v>9.421964331906985</v>
+        <v>9.421964331906969</v>
       </c>
       <c r="U15" t="n">
-        <v>0.153786142522965</v>
+        <v>0.1537861425229648</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.959722865374613</v>
+        <v>1.95972286537461</v>
       </c>
       <c r="H16" t="n">
-        <v>17.42371783942158</v>
+        <v>17.42371783942155</v>
       </c>
       <c r="I16" t="n">
-        <v>58.9342112605384</v>
+        <v>58.9342112605383</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819852</v>
+        <v>138.5524065819849</v>
       </c>
       <c r="K16" t="n">
-        <v>227.684165631705</v>
+        <v>227.6841656317047</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939676</v>
+        <v>291.3573430939671</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786769</v>
+        <v>307.1954669786763</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895535</v>
+        <v>299.8910453895531</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894955</v>
+        <v>276.997919189495</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358532</v>
+        <v>237.0195727358528</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815051</v>
+        <v>164.1000664815049</v>
       </c>
       <c r="R16" t="n">
-        <v>88.1162662922076</v>
+        <v>88.11626629220746</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475575</v>
+        <v>34.15262484475569</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873346</v>
+        <v>8.373361333873332</v>
       </c>
       <c r="U16" t="n">
-        <v>0.106893974474979</v>
+        <v>0.1068939744749789</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,10 +35255,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>265.6814601982566</v>
+        <v>358.8527477856495</v>
       </c>
       <c r="K11" t="n">
-        <v>520.1520867584941</v>
+        <v>639.3089516393718</v>
       </c>
       <c r="L11" t="n">
-        <v>698.0993329027729</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M11" t="n">
-        <v>793.5443055519436</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N11" t="n">
-        <v>791.6048865399819</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O11" t="n">
-        <v>701.8459684710939</v>
+        <v>886.8067340963944</v>
       </c>
       <c r="P11" t="n">
-        <v>560.9543640798843</v>
+        <v>718.814098322528</v>
       </c>
       <c r="Q11" t="n">
-        <v>343.2515883688056</v>
+        <v>461.797674555089</v>
       </c>
       <c r="R11" t="n">
-        <v>55.60928464622759</v>
+        <v>124.5666583207921</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.6083811463898</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K12" t="n">
-        <v>144.7765463339122</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L12" t="n">
-        <v>241.4603786927326</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M12" t="n">
-        <v>518.2339386823498</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N12" t="n">
-        <v>323.8546350061952</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O12" t="n">
-        <v>667.6818025943999</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P12" t="n">
-        <v>200.2359259738195</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q12" t="n">
-        <v>293.5062707569227</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.37921568172976</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K13" t="n">
-        <v>148.2045596468681</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>245.738118983741</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>269.5904551734716</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N13" t="n">
-        <v>268.6697082509672</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O13" t="n">
-        <v>231.9818847448952</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>174.7423136305804</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.70466160867412</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135753</v>
+        <v>189.7561326135747</v>
       </c>
       <c r="K14" t="n">
-        <v>659.7916946872681</v>
+        <v>335.6462821161024</v>
       </c>
       <c r="L14" t="n">
-        <v>871.3346143171966</v>
+        <v>639.4023452616541</v>
       </c>
       <c r="M14" t="n">
-        <v>536.788401497892</v>
+        <v>986.3019349907231</v>
       </c>
       <c r="N14" t="n">
-        <v>880.9173878110961</v>
+        <v>987.4815359449782</v>
       </c>
       <c r="O14" t="n">
-        <v>886.8067340963936</v>
+        <v>886.8067340963923</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0153901510446</v>
+        <v>397.0153901510436</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951838</v>
+        <v>249.482683895183</v>
       </c>
       <c r="R14" t="n">
-        <v>58.85023844780937</v>
+        <v>58.85023844780892</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581258</v>
+        <v>94.00952640581221</v>
       </c>
       <c r="K15" t="n">
-        <v>239.6215216435078</v>
+        <v>239.6215216435072</v>
       </c>
       <c r="L15" t="n">
-        <v>368.991152593418</v>
+        <v>368.9911525934171</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1476629814273</v>
+        <v>450.1476629814263</v>
       </c>
       <c r="N15" t="n">
-        <v>476.6159189479534</v>
+        <v>476.6159189479524</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851076</v>
+        <v>413.5662137851067</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633264</v>
+        <v>312.3949974633256</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.4043520465393</v>
+        <v>158.4043520465362</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531239</v>
+        <v>45.19322646531216</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058222</v>
+        <v>205.4146738058218</v>
       </c>
       <c r="L16" t="n">
-        <v>318.9473683542838</v>
+        <v>318.9473683542832</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405175</v>
+        <v>346.7793439405169</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687822</v>
+        <v>344.0232177687817</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035351</v>
+        <v>301.5830471035347</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007466</v>
+        <v>234.2981320007463</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981075</v>
+        <v>77.9380232298105</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>550.1346115329959</v>
       </c>
       <c r="O17" t="n">
-        <v>866.323991048498</v>
+        <v>866.3239910484989</v>
       </c>
       <c r="P17" t="n">
         <v>718.8140983225278</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.00952640581275</v>
+        <v>94.00952640581188</v>
       </c>
       <c r="K18" t="n">
         <v>239.6215216435081</v>
@@ -35978,7 +35978,7 @@
         <v>413.5662137851081</v>
       </c>
       <c r="P18" t="n">
-        <v>312.3949974633259</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q18" t="n">
         <v>158.4043520465369</v>
@@ -36042,7 +36042,7 @@
         <v>45.19322646531251</v>
       </c>
       <c r="K19" t="n">
-        <v>205.4146738058224</v>
+        <v>205.4146738058237</v>
       </c>
       <c r="L19" t="n">
         <v>318.947368354284</v>
@@ -36121,19 +36121,19 @@
         <v>189.7561326135756</v>
       </c>
       <c r="K20" t="n">
-        <v>659.7916946872685</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L20" t="n">
-        <v>871.3346143171972</v>
+        <v>639.4023452616432</v>
       </c>
       <c r="M20" t="n">
         <v>986.301934990725</v>
       </c>
       <c r="N20" t="n">
-        <v>550.1346115329959</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O20" t="n">
-        <v>768.0759768816592</v>
+        <v>886.8067340963943</v>
       </c>
       <c r="P20" t="n">
         <v>397.0153901510452</v>
@@ -36358,19 +36358,19 @@
         <v>189.7561326135756</v>
       </c>
       <c r="K23" t="n">
-        <v>659.7916946872685</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L23" t="n">
         <v>871.3346143171972</v>
       </c>
       <c r="M23" t="n">
-        <v>536.7884014978926</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N23" t="n">
         <v>987.4815359449801</v>
       </c>
       <c r="O23" t="n">
-        <v>780.2425859625072</v>
+        <v>654.8744650408393</v>
       </c>
       <c r="P23" t="n">
         <v>397.0153901510452</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.00952640581275</v>
+        <v>94.00952640581188</v>
       </c>
       <c r="K24" t="n">
-        <v>239.6215216435073</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L24" t="n">
         <v>368.9911525934183</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>581.9206576708319</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37470,7 +37470,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37549,13 +37549,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779116</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597715</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,13 +37710,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282456</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38020,7 +38020,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,7 +38029,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
